--- a/Code/Results/Cases/Case_9_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_2/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.578787134031188</v>
+        <v>2.571517180056162</v>
       </c>
       <c r="C2">
-        <v>0.4120375186884644</v>
+        <v>0.4836335200909332</v>
       </c>
       <c r="D2">
-        <v>0.0132832314336877</v>
+        <v>0.01923458739267403</v>
       </c>
       <c r="E2">
-        <v>0.03435664189104148</v>
+        <v>0.03447117337401939</v>
       </c>
       <c r="F2">
-        <v>1.524292553944335</v>
+        <v>1.252300324904297</v>
       </c>
       <c r="G2">
-        <v>1.332292052141568</v>
+        <v>1.039168146542792</v>
       </c>
       <c r="H2">
-        <v>0.01669182922693957</v>
+        <v>0.01314343412030147</v>
       </c>
       <c r="I2">
-        <v>0.01968196439863146</v>
+        <v>0.01389051795474483</v>
       </c>
       <c r="J2">
-        <v>0.8697000610473395</v>
+        <v>0.7331335246783226</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.06890016644047892</v>
+        <v>0.2830074097856219</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2356596564812641</v>
       </c>
       <c r="N2">
-        <v>0.1572557051192263</v>
+        <v>0.06666542470142023</v>
       </c>
       <c r="O2">
-        <v>0.43789259071076</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1901514072531967</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4535098649821379</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.250144628609803</v>
+        <v>2.242602680461061</v>
       </c>
       <c r="C3">
-        <v>0.3638842265579569</v>
+        <v>0.420575239416678</v>
       </c>
       <c r="D3">
-        <v>0.01237611113169379</v>
+        <v>0.01788104371110677</v>
       </c>
       <c r="E3">
-        <v>0.03263494806641809</v>
+        <v>0.03307176624877173</v>
       </c>
       <c r="F3">
-        <v>1.441933247432772</v>
+        <v>1.201115924609468</v>
       </c>
       <c r="G3">
-        <v>1.248645125463881</v>
+        <v>0.9923562210025239</v>
       </c>
       <c r="H3">
-        <v>0.02146931046681289</v>
+        <v>0.01696202488986071</v>
       </c>
       <c r="I3">
-        <v>0.02515516324490363</v>
+        <v>0.01782866447175024</v>
       </c>
       <c r="J3">
-        <v>0.8354191594113445</v>
+        <v>0.7087595121850683</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.06553810352011702</v>
+        <v>0.2848139149109947</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2298028286589187</v>
       </c>
       <c r="N3">
-        <v>0.1398830724736158</v>
+        <v>0.0635761406897748</v>
       </c>
       <c r="O3">
-        <v>0.3832661513081703</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1691661062762293</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3962089867201399</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.048536237184919</v>
+        <v>2.040530100524677</v>
       </c>
       <c r="C4">
-        <v>0.3346014375321431</v>
+        <v>0.3823142713520724</v>
       </c>
       <c r="D4">
-        <v>0.01183575136477621</v>
+        <v>0.01707369842659645</v>
       </c>
       <c r="E4">
-        <v>0.03156790302352663</v>
+        <v>0.03220117727194921</v>
       </c>
       <c r="F4">
-        <v>1.391848059047703</v>
+        <v>1.169919664822359</v>
       </c>
       <c r="G4">
-        <v>1.197708258218228</v>
+        <v>0.964028609869473</v>
       </c>
       <c r="H4">
-        <v>0.02481066297156764</v>
+        <v>0.01963823852374691</v>
       </c>
       <c r="I4">
-        <v>0.0290109799912357</v>
+        <v>0.02062866594359702</v>
       </c>
       <c r="J4">
-        <v>0.814668387533473</v>
+        <v>0.6936668219272946</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.06343612732663662</v>
+        <v>0.2857273232310718</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.2269495921901523</v>
       </c>
       <c r="N4">
-        <v>0.1293070024556684</v>
+        <v>0.06165224472634812</v>
       </c>
       <c r="O4">
-        <v>0.3498133484758341</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1564079033003267</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3610966930285286</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.96630770298583</v>
+        <v>1.958049537629336</v>
       </c>
       <c r="C5">
-        <v>0.3234202913783406</v>
+        <v>0.3675261695794632</v>
       </c>
       <c r="D5">
-        <v>0.01164683052711624</v>
+        <v>0.01678211374170324</v>
       </c>
       <c r="E5">
-        <v>0.03111952481258995</v>
+        <v>0.03183527840671124</v>
       </c>
       <c r="F5">
-        <v>1.369445227422247</v>
+        <v>1.155606803627599</v>
       </c>
       <c r="G5">
-        <v>1.174819473793562</v>
+        <v>0.9508690692649822</v>
       </c>
       <c r="H5">
-        <v>0.02628054257936896</v>
+        <v>0.02081650505869026</v>
       </c>
       <c r="I5">
-        <v>0.03080385514893624</v>
+        <v>0.02197225281525572</v>
       </c>
       <c r="J5">
-        <v>0.8051429628592501</v>
+        <v>0.6865770510068785</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.06254542071836955</v>
+        <v>0.2855449020190797</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.2256123136219905</v>
       </c>
       <c r="N5">
-        <v>0.1252140439977012</v>
+        <v>0.06085485641515831</v>
       </c>
       <c r="O5">
-        <v>0.3363212092182053</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1514230494491571</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3469108103702467</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.952538285275182</v>
+        <v>1.944241772091686</v>
       </c>
       <c r="C6">
-        <v>0.3224127653210758</v>
+        <v>0.3659325367295878</v>
       </c>
       <c r="D6">
-        <v>0.01164955204687068</v>
+        <v>0.01677315216193875</v>
       </c>
       <c r="E6">
-        <v>0.03103215919077451</v>
+        <v>0.03176478875817224</v>
       </c>
       <c r="F6">
-        <v>1.363164809816965</v>
+        <v>1.151219175374948</v>
       </c>
       <c r="G6">
-        <v>1.168308332682571</v>
+        <v>0.9466050862630766</v>
       </c>
       <c r="H6">
-        <v>0.02654249244127815</v>
+        <v>0.02102623939503767</v>
       </c>
       <c r="I6">
-        <v>0.03124070640334509</v>
+        <v>0.02234442664810032</v>
       </c>
       <c r="J6">
-        <v>0.8021755517656715</v>
+        <v>0.6842920965619896</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.06236825750197106</v>
+        <v>0.2848963685901609</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.2249631266405281</v>
       </c>
       <c r="N6">
-        <v>0.1247761714997608</v>
+        <v>0.06071522049684308</v>
       </c>
       <c r="O6">
-        <v>0.3342314251136997</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1508232629655666</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3446887168256936</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.047103309274178</v>
+        <v>2.039091579776368</v>
       </c>
       <c r="C7">
-        <v>0.3367650135972724</v>
+        <v>0.3840074423457622</v>
       </c>
       <c r="D7">
-        <v>0.01192538577445212</v>
+        <v>0.01727120605523069</v>
       </c>
       <c r="E7">
-        <v>0.03152730728918129</v>
+        <v>0.03216473116312674</v>
       </c>
       <c r="F7">
-        <v>1.384532129620126</v>
+        <v>1.161230288977634</v>
       </c>
       <c r="G7">
-        <v>1.189975034230017</v>
+        <v>0.960784885658569</v>
       </c>
       <c r="H7">
-        <v>0.0248613225199622</v>
+        <v>0.01969264241216273</v>
       </c>
       <c r="I7">
-        <v>0.02937569376053961</v>
+        <v>0.02103432994503684</v>
       </c>
       <c r="J7">
-        <v>0.8107441058635203</v>
+        <v>0.6826763158080666</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.06334633247373755</v>
+        <v>0.2833284808186782</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.2251569456050042</v>
       </c>
       <c r="N7">
-        <v>0.1299098166086807</v>
+        <v>0.06160095928345033</v>
       </c>
       <c r="O7">
-        <v>0.3500401832021822</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1569963916127506</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3612918738659161</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.464962924163444</v>
+        <v>2.457597379918809</v>
       </c>
       <c r="C8">
-        <v>0.3984647306978104</v>
+        <v>0.4634162684693592</v>
       </c>
       <c r="D8">
-        <v>0.01308833220721972</v>
+        <v>0.01922784979067771</v>
       </c>
       <c r="E8">
-        <v>0.03371955170727803</v>
+        <v>0.03393995912564129</v>
       </c>
       <c r="F8">
-        <v>1.486503983371733</v>
+        <v>1.217502729095301</v>
       </c>
       <c r="G8">
-        <v>1.293515322051036</v>
+        <v>1.024263254191794</v>
       </c>
       <c r="H8">
-        <v>0.01828559834686871</v>
+        <v>0.01445390196823992</v>
       </c>
       <c r="I8">
-        <v>0.02186561846124224</v>
+        <v>0.0156538971487139</v>
       </c>
       <c r="J8">
-        <v>0.8527989069696105</v>
+        <v>0.695000032601726</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.06764755023457258</v>
+        <v>0.2793337083812055</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2298404877779348</v>
       </c>
       <c r="N8">
-        <v>0.1521225792003733</v>
+        <v>0.06551881947898064</v>
       </c>
       <c r="O8">
-        <v>0.4195788012684858</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1838380624663216</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4342926653683463</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.287535969665839</v>
+        <v>3.278828792092725</v>
       </c>
       <c r="C9">
-        <v>0.5179155217886375</v>
+        <v>0.6205444663406467</v>
       </c>
       <c r="D9">
-        <v>0.01535768392984238</v>
+        <v>0.02272969083513132</v>
       </c>
       <c r="E9">
-        <v>0.03803102923852442</v>
+        <v>0.03741738253851801</v>
       </c>
       <c r="F9">
-        <v>1.703545693072613</v>
+        <v>1.350767631961205</v>
       </c>
       <c r="G9">
-        <v>1.513965952549228</v>
+        <v>1.15325034813246</v>
       </c>
       <c r="H9">
-        <v>0.008785600518926712</v>
+        <v>0.006882971627829304</v>
       </c>
       <c r="I9">
-        <v>0.01080436092344073</v>
+        <v>0.007691945732364758</v>
       </c>
       <c r="J9">
-        <v>0.944743367260827</v>
+        <v>0.7516795143662875</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.075965168915888</v>
+        <v>0.2753747491620544</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2493904490679597</v>
       </c>
       <c r="N9">
-        <v>0.1953195012120048</v>
+        <v>0.07312478891044982</v>
       </c>
       <c r="O9">
-        <v>0.5561162929648376</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2363309372316138</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.5774427647319413</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.897680085468494</v>
+        <v>3.886028946125577</v>
       </c>
       <c r="C10">
-        <v>0.614721686349128</v>
+        <v>0.7417494091384924</v>
       </c>
       <c r="D10">
-        <v>0.01716665474533663</v>
+        <v>0.02592875003927375</v>
       </c>
       <c r="E10">
-        <v>0.04087409606129488</v>
+        <v>0.03974612316482939</v>
       </c>
       <c r="F10">
-        <v>1.827878166104171</v>
+        <v>1.406113349954509</v>
       </c>
       <c r="G10">
-        <v>1.641244380634561</v>
+        <v>1.240701748015695</v>
       </c>
       <c r="H10">
-        <v>0.004549115856585129</v>
+        <v>0.003600972149785608</v>
       </c>
       <c r="I10">
-        <v>0.005811957797469347</v>
+        <v>0.004320393228376851</v>
       </c>
       <c r="J10">
-        <v>0.995097895966552</v>
+        <v>0.7364476994084725</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.08178625196948364</v>
+        <v>0.2627356360905821</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.2577096580396869</v>
       </c>
       <c r="N10">
-        <v>0.2218984045302363</v>
+        <v>0.0792196626287307</v>
       </c>
       <c r="O10">
-        <v>0.6536565352040355</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2688361350466835</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.6793211733373212</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.200209858590654</v>
+        <v>4.189303424665866</v>
       </c>
       <c r="C11">
-        <v>0.7160314285875415</v>
+        <v>0.8355221107736099</v>
       </c>
       <c r="D11">
-        <v>0.01789229729052799</v>
+        <v>0.02692969569319104</v>
       </c>
       <c r="E11">
-        <v>0.04164805753220735</v>
+        <v>0.04124097067943966</v>
       </c>
       <c r="F11">
-        <v>1.57923186884733</v>
+        <v>1.190081754703812</v>
       </c>
       <c r="G11">
-        <v>1.400721053960098</v>
+        <v>1.098031551736511</v>
       </c>
       <c r="H11">
-        <v>0.02269843104284064</v>
+        <v>0.02191159622070415</v>
       </c>
       <c r="I11">
-        <v>0.005232123630269037</v>
+        <v>0.004229758035732445</v>
       </c>
       <c r="J11">
-        <v>0.8671556083090195</v>
+        <v>0.5707082448460028</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.09016101594060899</v>
+        <v>0.2127410827735936</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.2096557919473732</v>
       </c>
       <c r="N11">
-        <v>0.184362614226913</v>
+        <v>0.09431391212982732</v>
       </c>
       <c r="O11">
-        <v>0.6651355774638077</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.2236740677400917</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6888632941691668</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.327914590266573</v>
+        <v>4.318646262694301</v>
       </c>
       <c r="C12">
-        <v>0.7816346770948428</v>
+        <v>0.8888825848419515</v>
       </c>
       <c r="D12">
-        <v>0.01793290014409088</v>
+        <v>0.02645144396597487</v>
       </c>
       <c r="E12">
-        <v>0.04485098704587909</v>
+        <v>0.04487135095799122</v>
       </c>
       <c r="F12">
-        <v>1.36837571236957</v>
+        <v>1.026903929024144</v>
       </c>
       <c r="G12">
-        <v>1.197098052505552</v>
+        <v>0.9647449461561735</v>
       </c>
       <c r="H12">
-        <v>0.06146221453191458</v>
+        <v>0.06068104395888696</v>
       </c>
       <c r="I12">
-        <v>0.005023814007214966</v>
+        <v>0.004089101901164405</v>
       </c>
       <c r="J12">
-        <v>0.7613771966204865</v>
+        <v>0.4774239234417621</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1056542042509143</v>
+        <v>0.1821204356499031</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1753977479511448</v>
       </c>
       <c r="N12">
-        <v>0.1496224016630165</v>
+        <v>0.1143673047679172</v>
       </c>
       <c r="O12">
-        <v>0.6529431256934686</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1818199433440526</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.6741317863586644</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.326496936721185</v>
+        <v>4.319899942709753</v>
       </c>
       <c r="C13">
-        <v>0.8264850985081864</v>
+        <v>0.9189077009702089</v>
       </c>
       <c r="D13">
-        <v>0.01757773515751992</v>
+        <v>0.024799540433456</v>
       </c>
       <c r="E13">
-        <v>0.04994481480439283</v>
+        <v>0.05036621763521509</v>
       </c>
       <c r="F13">
-        <v>1.163706635997315</v>
+        <v>0.8888133519638757</v>
       </c>
       <c r="G13">
-        <v>0.9986758365518114</v>
+        <v>0.8180754035314521</v>
       </c>
       <c r="H13">
-        <v>0.1177503274706027</v>
+        <v>0.1168392755523655</v>
       </c>
       <c r="I13">
-        <v>0.005455652896850793</v>
+        <v>0.004345757478458445</v>
       </c>
       <c r="J13">
-        <v>0.6606217641932375</v>
+        <v>0.4297395152628098</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1270553828261995</v>
+        <v>0.1611373235590641</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1483768561577712</v>
       </c>
       <c r="N13">
-        <v>0.1162966968336221</v>
+        <v>0.1386148765471305</v>
       </c>
       <c r="O13">
-        <v>0.6225685955278877</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1414083202442455</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.6405108027888531</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.266901607935836</v>
+        <v>4.262589910825398</v>
       </c>
       <c r="C14">
-        <v>0.8495386655094705</v>
+        <v>0.9302434143253038</v>
       </c>
       <c r="D14">
-        <v>0.01716936383532897</v>
+        <v>0.02323625381774974</v>
       </c>
       <c r="E14">
-        <v>0.0547168333951813</v>
+        <v>0.05543604380829237</v>
       </c>
       <c r="F14">
-        <v>1.024768745052313</v>
+        <v>0.8019498871134303</v>
       </c>
       <c r="G14">
-        <v>0.8635926682380415</v>
+        <v>0.7119760349743558</v>
       </c>
       <c r="H14">
-        <v>0.1676910278062564</v>
+        <v>0.1666194036431108</v>
       </c>
       <c r="I14">
-        <v>0.006180709722501732</v>
+        <v>0.004838808114376647</v>
       </c>
       <c r="J14">
-        <v>0.5929803962780795</v>
+        <v>0.4116350112149831</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1458140341847383</v>
+        <v>0.1500376736724665</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1327146107940962</v>
       </c>
       <c r="N14">
-        <v>0.09446685220573414</v>
+        <v>0.1582534660661565</v>
       </c>
       <c r="O14">
-        <v>0.5933550838782864</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1148456232872945</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.6087150766636356</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.224539036209194</v>
+        <v>4.220964850341431</v>
       </c>
       <c r="C15">
-        <v>0.8512459975452487</v>
+        <v>0.9287220979530559</v>
       </c>
       <c r="D15">
-        <v>0.01702121327093664</v>
+        <v>0.02270310209953408</v>
       </c>
       <c r="E15">
-        <v>0.05587109699152926</v>
+        <v>0.05670831486660788</v>
       </c>
       <c r="F15">
-        <v>0.9887935836357684</v>
+        <v>0.7821704994927217</v>
       </c>
       <c r="G15">
-        <v>0.8282066145797273</v>
+        <v>0.68211235996678</v>
       </c>
       <c r="H15">
-        <v>0.1805038048451024</v>
+        <v>0.1793515275363973</v>
       </c>
       <c r="I15">
-        <v>0.00666247019119659</v>
+        <v>0.005220372547595886</v>
       </c>
       <c r="J15">
-        <v>0.5757825310460021</v>
+        <v>0.4124433541821872</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1504651907024979</v>
+        <v>0.1481201682386253</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1295057184746078</v>
       </c>
       <c r="N15">
-        <v>0.08919281851753169</v>
+        <v>0.1628308974729649</v>
       </c>
       <c r="O15">
-        <v>0.5826594778487646</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.1083713381747771</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.5972312647601257</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.960031476728716</v>
+        <v>3.957774022387298</v>
       </c>
       <c r="C16">
-        <v>0.7999688773007563</v>
+        <v>0.8750723871085313</v>
       </c>
       <c r="D16">
-        <v>0.01634256773960274</v>
+        <v>0.02105996185900949</v>
       </c>
       <c r="E16">
-        <v>0.05338512786048533</v>
+        <v>0.05468005924508113</v>
       </c>
       <c r="F16">
-        <v>0.9764311881144749</v>
+        <v>0.8007460552842858</v>
       </c>
       <c r="G16">
-        <v>0.8130326043027907</v>
+        <v>0.6549003714113439</v>
       </c>
       <c r="H16">
-        <v>0.16949052818795</v>
+        <v>0.167908621305827</v>
       </c>
       <c r="I16">
-        <v>0.008672878438612308</v>
+        <v>0.006605174491839172</v>
       </c>
       <c r="J16">
-        <v>0.5737873936164561</v>
+        <v>0.4642693393611381</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1429064727118359</v>
+        <v>0.1561515381678582</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1354947885863673</v>
       </c>
       <c r="N16">
-        <v>0.08586609800925515</v>
+        <v>0.1536802346972195</v>
       </c>
       <c r="O16">
-        <v>0.5478344292463504</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.1041332583671064</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.561098957683555</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.789483120343618</v>
+        <v>3.786888877155207</v>
       </c>
       <c r="C17">
-        <v>0.7485617338911652</v>
+        <v>0.8272386080347474</v>
       </c>
       <c r="D17">
-        <v>0.01605284691226672</v>
+        <v>0.02069894199684974</v>
       </c>
       <c r="E17">
-        <v>0.04871709375737865</v>
+        <v>0.05010125189782855</v>
       </c>
       <c r="F17">
-        <v>1.038642247683697</v>
+        <v>0.8590215549572946</v>
       </c>
       <c r="G17">
-        <v>0.8709953491384681</v>
+        <v>0.690730614851276</v>
       </c>
       <c r="H17">
-        <v>0.1327789562098616</v>
+        <v>0.1309454055051589</v>
       </c>
       <c r="I17">
-        <v>0.009920904600847713</v>
+        <v>0.007487620685750151</v>
       </c>
       <c r="J17">
-        <v>0.6072307895390168</v>
+        <v>0.5122453469512465</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1264527906723316</v>
+        <v>0.1687666413978128</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1476912748591133</v>
       </c>
       <c r="N17">
-        <v>0.09444541688489494</v>
+        <v>0.1359523792938475</v>
       </c>
       <c r="O17">
-        <v>0.5366098340152874</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1143756147488233</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.550249960010575</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.68025517514053</v>
+        <v>3.676151834159668</v>
       </c>
       <c r="C18">
-        <v>0.6904455843950643</v>
+        <v>0.778592846877757</v>
       </c>
       <c r="D18">
-        <v>0.0159706237590207</v>
+        <v>0.02109547588094074</v>
       </c>
       <c r="E18">
-        <v>0.04308378118543565</v>
+        <v>0.04422447619258385</v>
       </c>
       <c r="F18">
-        <v>1.18429901174224</v>
+        <v>0.9717049990633768</v>
       </c>
       <c r="G18">
-        <v>1.011004523250818</v>
+        <v>0.7881351073294809</v>
       </c>
       <c r="H18">
-        <v>0.08027367067654012</v>
+        <v>0.0783739940240693</v>
       </c>
       <c r="I18">
-        <v>0.01010574499836459</v>
+        <v>0.00750369672574891</v>
       </c>
       <c r="J18">
-        <v>0.681130038946975</v>
+        <v>0.5760918872091025</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1047310060165252</v>
+        <v>0.190234493408461</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.169781904681038</v>
       </c>
       <c r="N18">
-        <v>0.1157869527919573</v>
+        <v>0.1124119166775159</v>
       </c>
       <c r="O18">
-        <v>0.5438592130669875</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1401257661189774</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.5593886730522684</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.627527720539888</v>
+        <v>3.621286603479462</v>
       </c>
       <c r="C19">
-        <v>0.6390187794343944</v>
+        <v>0.7396874735724168</v>
       </c>
       <c r="D19">
-        <v>0.01618721387254674</v>
+        <v>0.02220335775367488</v>
       </c>
       <c r="E19">
-        <v>0.03925177645124212</v>
+        <v>0.0397932597536057</v>
       </c>
       <c r="F19">
-        <v>1.389400158532652</v>
+        <v>1.122340372738194</v>
       </c>
       <c r="G19">
-        <v>1.209352739100453</v>
+        <v>0.9264052480319975</v>
       </c>
       <c r="H19">
-        <v>0.03445722231619897</v>
+        <v>0.03268282801831646</v>
       </c>
       <c r="I19">
-        <v>0.00993523469954205</v>
+        <v>0.007465465614767908</v>
       </c>
       <c r="J19">
-        <v>0.7830337614676637</v>
+        <v>0.651677901559168</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.08731577761700038</v>
+        <v>0.2184393222628351</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1995045289007322</v>
       </c>
       <c r="N19">
-        <v>0.1498254461335122</v>
+        <v>0.0919061538504522</v>
       </c>
       <c r="O19">
-        <v>0.5661649853231907</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1810537686268034</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5846087126374186</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.736066239245872</v>
+        <v>3.72566694605473</v>
       </c>
       <c r="C20">
-        <v>0.5968976624627658</v>
+        <v>0.7193625596883066</v>
       </c>
       <c r="D20">
-        <v>0.01696995959863834</v>
+        <v>0.02505661734238984</v>
       </c>
       <c r="E20">
-        <v>0.04000792049094515</v>
+        <v>0.03907398362781123</v>
       </c>
       <c r="F20">
-        <v>1.771795208594099</v>
+        <v>1.384416052362042</v>
       </c>
       <c r="G20">
-        <v>1.583095102348523</v>
+        <v>1.189513642107059</v>
       </c>
       <c r="H20">
-        <v>0.005527076634696648</v>
+        <v>0.004331602234355802</v>
       </c>
       <c r="I20">
-        <v>0.007835015962117886</v>
+        <v>0.006085807593171566</v>
       </c>
       <c r="J20">
-        <v>0.9693149535752923</v>
+        <v>0.7578705810111472</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.08005166151765852</v>
+        <v>0.263935873296397</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.2530611824369799</v>
       </c>
       <c r="N20">
-        <v>0.2167107618652437</v>
+        <v>0.0777222353046394</v>
       </c>
       <c r="O20">
-        <v>0.6291078311172242</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2617995170175931</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6534120558079692</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.201683544959792</v>
+        <v>4.186738097540967</v>
       </c>
       <c r="C21">
-        <v>0.6617478710400917</v>
+        <v>0.7961159776471902</v>
       </c>
       <c r="D21">
-        <v>0.01839253110137484</v>
+        <v>0.02991809408212376</v>
       </c>
       <c r="E21">
-        <v>0.04273159058167919</v>
+        <v>0.04109145918614365</v>
       </c>
       <c r="F21">
-        <v>1.928065182101221</v>
+        <v>1.415306622962035</v>
       </c>
       <c r="G21">
-        <v>1.740586365037757</v>
+        <v>1.351934092509794</v>
       </c>
       <c r="H21">
-        <v>0.002575459766799737</v>
+        <v>0.002059973714532592</v>
       </c>
       <c r="I21">
-        <v>0.004672435363316296</v>
+        <v>0.004013553874586684</v>
       </c>
       <c r="J21">
-        <v>1.038277810043525</v>
+        <v>0.6355666762804475</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.08480506427796719</v>
+        <v>0.2523231055374673</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.257589984709746</v>
       </c>
       <c r="N21">
-        <v>0.2464462939525731</v>
+        <v>0.08109354046709605</v>
       </c>
       <c r="O21">
-        <v>0.7099823945020844</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.2988508939844934</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.7386674841900529</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.509126873986929</v>
+        <v>4.490627347999634</v>
       </c>
       <c r="C22">
-        <v>0.7044928123716261</v>
+        <v>0.8451273167375746</v>
       </c>
       <c r="D22">
-        <v>0.01921920785964737</v>
+        <v>0.03322828026193747</v>
       </c>
       <c r="E22">
-        <v>0.04440922579103135</v>
+        <v>0.04238275441114792</v>
       </c>
       <c r="F22">
-        <v>2.022362590138584</v>
+        <v>1.425553380662905</v>
       </c>
       <c r="G22">
-        <v>1.836681300286102</v>
+        <v>1.461437482348344</v>
       </c>
       <c r="H22">
-        <v>0.001341004114538968</v>
+        <v>0.001111753743976873</v>
       </c>
       <c r="I22">
-        <v>0.002953676698416174</v>
+        <v>0.002726594543202232</v>
       </c>
       <c r="J22">
-        <v>1.079937597978954</v>
+        <v>0.5545102568005689</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.08793800027037468</v>
+        <v>0.2433631385766724</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.2590439301072962</v>
       </c>
       <c r="N22">
-        <v>0.2620276584637224</v>
+        <v>0.08364297478279781</v>
       </c>
       <c r="O22">
-        <v>0.7606191640850284</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.3187177666125081</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.7919711189562335</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.345411982904466</v>
+        <v>4.328941883634968</v>
       </c>
       <c r="C23">
-        <v>0.6787631350807999</v>
+        <v>0.8172574350025741</v>
       </c>
       <c r="D23">
-        <v>0.0186641436739432</v>
+        <v>0.03097407999779023</v>
       </c>
       <c r="E23">
-        <v>0.04355121956563668</v>
+        <v>0.04172339638227895</v>
       </c>
       <c r="F23">
-        <v>1.980187561051679</v>
+        <v>1.433617921095916</v>
       </c>
       <c r="G23">
-        <v>1.794060969261949</v>
+        <v>1.401603923095934</v>
       </c>
       <c r="H23">
-        <v>0.00193988551664015</v>
+        <v>0.001567019009459214</v>
       </c>
       <c r="I23">
-        <v>0.003473464912561397</v>
+        <v>0.002969349709612601</v>
       </c>
       <c r="J23">
-        <v>1.062086222792146</v>
+        <v>0.615568721907394</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.08634804458685919</v>
+        <v>0.2508615983811708</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.2615574559032012</v>
       </c>
       <c r="N23">
-        <v>0.2528911605248538</v>
+        <v>0.0823006455758506</v>
       </c>
       <c r="O23">
-        <v>0.7330808208671442</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.3072239252120994</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.7630151848640665</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.726995456513293</v>
+        <v>3.716316803604684</v>
       </c>
       <c r="C24">
-        <v>0.5869747732878636</v>
+        <v>0.7101351184254838</v>
       </c>
       <c r="D24">
-        <v>0.01680165433794301</v>
+        <v>0.02494095415797659</v>
       </c>
       <c r="E24">
-        <v>0.04027914994367832</v>
+        <v>0.03922072220964945</v>
       </c>
       <c r="F24">
-        <v>1.809820857936828</v>
+        <v>1.41276166386578</v>
       </c>
       <c r="G24">
-        <v>1.621211690041292</v>
+        <v>1.216223862430127</v>
       </c>
       <c r="H24">
-        <v>0.005296448891301542</v>
+        <v>0.004121031112499063</v>
       </c>
       <c r="I24">
-        <v>0.007258481930935368</v>
+        <v>0.005426078795583322</v>
       </c>
       <c r="J24">
-        <v>0.9887684444235845</v>
+        <v>0.7730815791351802</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.08021476688508367</v>
+        <v>0.2702401082906078</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.2596639912907435</v>
       </c>
       <c r="N24">
-        <v>0.2198829044296673</v>
+        <v>0.07713332870472023</v>
       </c>
       <c r="O24">
-        <v>0.6300781239716358</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2659257527374024</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.6547618632761569</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.063893840782271</v>
+        <v>3.055995795845263</v>
       </c>
       <c r="C25">
-        <v>0.4895530923830336</v>
+        <v>0.5826279496419602</v>
       </c>
       <c r="D25">
-        <v>0.01489166695600908</v>
+        <v>0.02181868307456014</v>
       </c>
       <c r="E25">
-        <v>0.03680460214074177</v>
+        <v>0.03644510234062326</v>
       </c>
       <c r="F25">
-        <v>1.631580875642342</v>
+        <v>1.308953330263819</v>
       </c>
       <c r="G25">
-        <v>1.440342713352322</v>
+        <v>1.103918836467258</v>
       </c>
       <c r="H25">
-        <v>0.01099141934919804</v>
+        <v>0.008622419466841919</v>
       </c>
       <c r="I25">
-        <v>0.01384731258720429</v>
+        <v>0.01006279323009007</v>
       </c>
       <c r="J25">
-        <v>0.9127044775240165</v>
+        <v>0.7422076638025317</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.07360325413847546</v>
+        <v>0.2750123807197582</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2418754164488313</v>
       </c>
       <c r="N25">
-        <v>0.1847421328790517</v>
+        <v>0.07110486298776486</v>
       </c>
       <c r="O25">
-        <v>0.5197940110316566</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2230937598156117</v>
       </c>
       <c r="Q25">
+        <v>0.5392410741651759</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
